--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Documents\UCSD\ECE-111-Verilog\Labs\Final_Project\bitcoin_hash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanmohamad/Desktop/ECE 111/ece_111_final_project/simplified_sha256/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C8974F-F837-42F1-A555-1AF19552B09F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37263A8-7697-054A-B8FC-0A5BD9BA3010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Last Name</t>
   </si>
@@ -67,36 +72,6 @@
   </si>
   <si>
     <t>Compiler Settings</t>
-  </si>
-  <si>
-    <t>B00</t>
-  </si>
-  <si>
-    <t>Performance (High Effort)</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Lillard</t>
-  </si>
-  <si>
-    <t>Damien</t>
-  </si>
-  <si>
-    <t>A57899087</t>
-  </si>
-  <si>
-    <t>A45623148</t>
-  </si>
-  <si>
-    <t>jscott@ucsd.edu</t>
-  </si>
-  <si>
-    <t>dlillard@ucsd.edu</t>
   </si>
   <si>
     <r>
@@ -118,6 +93,33 @@
       </rPr>
       <t xml:space="preserve"> (MIN DELAY DESIGN)</t>
     </r>
+  </si>
+  <si>
+    <t>Mohamad</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>A17160489</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>amohamad@ucsd.ed</t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>aryoung@ucsd.edu</t>
   </si>
 </sst>
 </file>
@@ -687,7 +689,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -698,47 +700,43 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1123,147 +1121,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" style="2" customWidth="1"/>
-    <col min="17" max="19" width="9.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="16"/>
     </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4">
-        <v>28620</v>
+        <v>2353</v>
       </c>
       <c r="H3" s="4">
-        <v>16969</v>
+        <v>2270</v>
       </c>
       <c r="I3" s="5">
         <f>G3+H3</f>
-        <v>45589</v>
+        <v>4623</v>
       </c>
       <c r="J3" s="6">
-        <v>171.35</v>
+        <v>122.74</v>
       </c>
       <c r="K3" s="4">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L3" s="7">
         <f>K3/J3</f>
-        <v>1.1088415523781734</v>
+        <v>1.3524523382760307</v>
       </c>
       <c r="M3" s="7">
         <f t="shared" ref="M3" si="0">I3*L3/1000</f>
-        <v>50.550977531368545</v>
+        <v>6.2523871598500902</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1274,48 +1272,46 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="4">
-        <v>28620</v>
+        <v>2353</v>
       </c>
       <c r="H4" s="4">
-        <v>16969</v>
+        <v>2270</v>
       </c>
       <c r="I4" s="5">
         <f>G4+H4</f>
-        <v>45589</v>
+        <v>4623</v>
       </c>
       <c r="J4" s="6">
-        <v>171.35</v>
+        <v>122.74</v>
       </c>
       <c r="K4" s="4">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7">
         <f>K4/J4</f>
-        <v>1.3131018383425737</v>
+        <v>1.3524523382760307</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4" si="1">I4*L4/1000</f>
-        <v>59.862999708199588</v>
+        <v>6.2523871598500902</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1334,7 +1330,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{D2C0E120-7830-4F4D-A57E-999759B7D5A3}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{22AB6B49-9FF5-42A2-B944-D37142EC249F}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{9E1F70FC-5E17-9941-8198-4EDD1E9ECC3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanmohamad/Desktop/ECE 111/ece_111_final_project/simplified_sha256/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\ece_111_final_project\simplified_sha256\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37263A8-7697-054A-B8FC-0A5BD9BA3010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177B538-B99D-42CD-9B0B-ED3E78B11C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Last Name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>amohamad@ucsd.ed</t>
   </si>
   <si>
-    <t>Balanced</t>
-  </si>
-  <si>
     <t>Young</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>aryoung@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Area (Aggressive)</t>
+  </si>
+  <si>
+    <t>Note: we also changed additional compiler settings (fitter effort, etc). Have included QPF files for reference.</t>
   </si>
 </sst>
 </file>
@@ -1119,34 +1122,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2" customWidth="1"/>
-    <col min="17" max="19" width="9.83203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="2" customWidth="1"/>
+    <col min="17" max="19" width="9.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1171,7 +1174,7 @@
       <c r="T1" s="15"/>
       <c r="U1" s="16"/>
     </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -1237,31 +1240,31 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4">
-        <v>2353</v>
+        <v>1635</v>
       </c>
       <c r="H3" s="4">
-        <v>2270</v>
+        <v>2235</v>
       </c>
       <c r="I3" s="5">
         <f>G3+H3</f>
-        <v>4623</v>
+        <v>3870</v>
       </c>
       <c r="J3" s="6">
-        <v>122.74</v>
+        <v>129.44999999999999</v>
       </c>
       <c r="K3" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L3" s="7">
         <f>K3/J3</f>
-        <v>1.3524523382760307</v>
+        <v>1.2746234067207418</v>
       </c>
       <c r="M3" s="7">
         <f t="shared" ref="M3" si="0">I3*L3/1000</f>
-        <v>6.2523871598500902</v>
+        <v>4.9327925840092712</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1272,46 +1275,46 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="4">
-        <v>2353</v>
+        <v>1635</v>
       </c>
       <c r="H4" s="4">
-        <v>2270</v>
+        <v>2235</v>
       </c>
       <c r="I4" s="5">
         <f>G4+H4</f>
-        <v>4623</v>
+        <v>3870</v>
       </c>
       <c r="J4" s="6">
-        <v>122.74</v>
+        <v>129.44999999999999</v>
       </c>
       <c r="K4" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7">
         <f>K4/J4</f>
-        <v>1.3524523382760307</v>
+        <v>1.2746234067207418</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ref="M4" si="1">I4*L4/1000</f>
-        <v>6.2523871598500902</v>
+        <v>4.9327925840092712</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1321,6 +1324,11 @@
       <c r="S4" s="4"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
